--- a/Housing_quick_add.xlsx
+++ b/Housing_quick_add.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">"Full suburb in a single entry" </t>
   </si>
   <si>
-    <t>VAA-0HM</t>
+    <t>VAA-0EY</t>
   </si>
 </sst>
 </file>
@@ -381,10 +381,10 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,19 +395,19 @@
       </c>
       <c r="B1">
         <f>SUM(B3:B100)</f>
-        <v>834</v>
+        <v>440</v>
       </c>
       <c r="C1">
         <f>SUM(C3:C100)</f>
-        <v>200.16000000000003</v>
+        <v>70.736000000000018</v>
       </c>
       <c r="D1" s="1">
         <f xml:space="preserve"> C1/B1</f>
-        <v>0.24000000000000002</v>
+        <v>0.16076363636363641</v>
       </c>
       <c r="E1">
         <f xml:space="preserve"> D1*E2</f>
-        <v>600</v>
+        <v>401.90909090909105</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -432,229 +432,263 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>7.68</v>
+        <v>2.88</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D42" si="0" xml:space="preserve"> C3/B3</f>
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="2">
         <f>D3*E$2</f>
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>20</v>
+        <f>14*18</f>
+        <v>252</v>
       </c>
       <c r="C4">
-        <v>4.8</v>
+        <f>14*2.88</f>
+        <v>40.32</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="E4" s="2">
         <f>D4*E$2</f>
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>4.32</v>
+        <v>1.6</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.24000000000000002</v>
+        <v>0.16</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E57" si="1">D5*E$2</f>
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
-        <f>33*20</f>
-        <v>660</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <f>33*4.8</f>
-        <v>158.4</v>
+        <v>1.92</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.24000000000000002</v>
+        <v>0.16</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>4.32</v>
+        <v>2.56</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.24000000000000002</v>
+        <v>0.16</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f>2*18</f>
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <f>2*4.32</f>
-        <v>8.64</v>
+        <v>1.6259999999999999</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.24000000000000002</v>
+        <v>0.16259999999999999</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>406.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>2.4</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>0.1948</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>1.92</v>
+        <v>2.863</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>0.15905555555555556</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>397.63888888888891</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.24000000000000002</v>
+        <v>0.16</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>5.52</v>
+        <v>1.6</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>2.88</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>2.56</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>2.7850000000000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.1638235294117647</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>409.55882352941177</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>1.92</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>1.113</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.159</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>397.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.17357142857142857</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>433.92857142857144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -664,7 +698,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -674,7 +708,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -684,7 +718,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -694,7 +728,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -704,7 +738,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -714,7 +748,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -724,7 +758,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -734,7 +768,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -744,7 +778,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -754,7 +788,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D29" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -764,7 +798,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -774,7 +808,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -784,7 +818,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
